--- a/biology/Zoologie/Crocodile_de_Johnston/Crocodile_de_Johnston.xlsx
+++ b/biology/Zoologie/Crocodile_de_Johnston/Crocodile_de_Johnston.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crocodylus johnsoni
-Crocodylus johnsoni, le Crocodile  de Johnston, est une espèce de crocodiliens de la famille des Crocodylidae[1].
+Crocodylus johnsoni, le Crocodile  de Johnston, est une espèce de crocodiliens de la famille des Crocodylidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du nord de l'Australie. Elle se rencontre dans le Territoire du Nord, dans le nord du Queensland et dans le nord-ouest de l'Australie-Occidentale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du nord de l'Australie. Elle se rencontre dans le Territoire du Nord, dans le nord du Queensland et dans le nord-ouest de l'Australie-Occidentale.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce petit crocodile d'eau douce possède, comme tous ses congénères, des pattes palmées que prolongent des griffes servant à agripper les rives et à creuser un nid pour déposer ses œufs.
 L'espèce fréquente des milieux dulcicoles et est rare sur les côtes à cause de la salinité et de la présence de Crocodylus porosus. La réduction des populations de ce dernier a permis l'expansion de la population de C. johnstoni, l'augmentation ultérieure du nombre de C. porosus renversant ensuite cette tendance.
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un crocodile de petite taille, les mâles dépassant rarement 3,0 mètres et la taille moyenne des femelles est de 2,1 mètres.
 </t>
@@ -606,9 +624,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En raison de la sécheresse du désert Australien, le crocodile de Johnston estive et passe trois à quatre mois par an sous terre, sans apport en eau[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En raison de la sécheresse du désert Australien, le crocodile de Johnston estive et passe trois à quatre mois par an sous terre, sans apport en eau.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les effectifs de cette population sont estimés de 50 000 à 100 000 individus.
 </t>
@@ -668,7 +690,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de l'espèce, johnsoni, a été dédié à Robert A. Johnstone, le premier européen ayant découvert l'espèce et transmis un spécimen à Gerard Krefft. Celui-ci d'ailleurs a fait une erreur lors de la description de cette espèce en écrivant johnsoni au lieu de johnstoni, erreur qu'il a corrigé un peu plus tard. Suivant les règles de la Commission internationale de nomenclature zoologique c'est le premier nom décrit, johnsoni, qui est conservée. De très nombreux ouvrages ou articles scientifiques utilisent néanmoins l'appellation telle que voulue par Krefft.
 </t>
@@ -699,7 +723,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Krefft, 1873 : Remarks on Australian crocodiles, and description of a new species. Proceedings of the Zoological Society of London, vol. 1873, p. 334-335 (texte intégral).</t>
         </is>
